--- a/results/BaggingClassifier_MLPClassifier.xlsx
+++ b/results/BaggingClassifier_MLPClassifier.xlsx
@@ -493,163 +493,160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', 'passthrough'),
                 ('model',
-                 BaggingClassifier(estimator=MLPClassifier(hidden_layer_sizes=(5,
+                 BaggingClassifier(estimator=MLPClassifier(alpha=0.01,
+                                                           hidden_layer_sizes=(10,
+                                                                               10,
+                                                                               10),
+                                                           learning_rate_init=0.0001,
+                                                           max_iter=1000,
+                                                           random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7979285714285714</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02234110707813683</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5743809523809523</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06506598965880907</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=0.01,
+                                                           hidden_layer_sizes=(5,
+                                                                               10,
+                                                                               5),
+                                                           learning_rate_init=1,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='lbfgs'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 1 1 0 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7693809523809523</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01941842714124612</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5555238095238095</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.06203243572108854</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(alpha=1e-05,
+                                                           hidden_layer_sizes=(5,
                                                                                10,
                                                                                5),
                                                            learning_rate_init=0.0001,
                                                            max_iter=1000,
                                                            random_state=42,
                                                            solver='sgd'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7468805704099823</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.0001, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7839670718785361</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04596092957677993</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6428043051283023</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.08081123434932787</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(hidden_layer_sizes=(10,
-                                                                               10,
-                                                                               10),
-                                                           learning_rate_init=1e-05,
-                                                           max_iter=1000,
-                                                           random_state=42,
-                                                           solver='sgd'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7680153406516033</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.0001, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.795255930720034</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0621929622765905</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6208303785762426</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0985164121250033</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(alpha=1,
-                                                           hidden_layer_sizes=(10,),
-                                                           learning_rate_init=1e-05,
-                                                           max_iter=1000,
-                                                           random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7457971014492754</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7836736627922941</v>
+        <v>0.742761904761905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06126015095569684</v>
+        <v>0.02184327197518508</v>
       </c>
       <c r="J4" t="n">
-        <v>0.619965419876818</v>
+        <v>0.5434285714285714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1031081153577596</v>
+        <v>0.06465148221885886</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_MLPClassifier.xlsx
+++ b/results/BaggingClassifier_MLPClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,62 +493,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=MLPClassifier(alpha=0.01,
-                                                           hidden_layer_sizes=(10,
-                                                                               10,
-                                                                               10),
-                                                           learning_rate_init=0.0001,
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=1e-05,
+                                                           hidden_layer_sizes=(10,),
+                                                           learning_rate_init=0.01,
                                                            max_iter=1000,
-                                                           random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                                           random_state=42,
+                                                           solver='lbfgs'),
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 0 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7979285714285714</v>
+        <v>0.756904761904762</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02234110707813683</v>
+        <v>0.02377006313463532</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5743809523809523</v>
+        <v>0.5822619047619046</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06506598965880907</v>
+        <v>0.05812372528453319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(activation='tanh',
-                                                           alpha=0.01,
+                                                           alpha=1e-05,
+                                                           hidden_layer_sizes=(5,
+                                                                               10,
+                                                                               5),
+                                                           learning_rate_init=1e-05,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='sgd'),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7639843279083784</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02699819094802026</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5355033152501507</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0838706479962243</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5ddc10&gt;),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(hidden_layer_sizes=(10,
+                                                                               10,
+                                                                               10),
+                                                           learning_rate_init=0.01,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='lbfgs'),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6095238095238095</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c394c70&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.0001, 'model__estimator__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7530476190476191</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02695810760902974</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5393015873015873</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.07611533623491983</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=1e-05,
                                                            hidden_layer_sizes=(5,
                                                                                10,
                                                                                5),
@@ -556,97 +669,98 @@
                                                            max_iter=1000,
                                                            random_state=42,
                                                            solver='lbfgs'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6476190476190476</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 0 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7693809523809523</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01941842714124612</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5555238095238095</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06203243572108854</v>
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7590599876314162</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03038426453614288</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5257884972170687</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07054333366411648</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=MLPClassifier(alpha=1e-05,
-                                                           hidden_layer_sizes=(5,
-                                                                               10,
-                                                                               5),
-                                                           learning_rate_init=0.0001,
+                 BaggingClassifier(estimator=MLPClassifier(alpha=1,
+                                                           hidden_layer_sizes=(10,),
+                                                           learning_rate_init=0.01,
                                                            max_iter=1000,
                                                            random_state=42,
                                                            solver='sgd'),
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="B6" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1, 'model__estimator__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.742761904761905</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02184327197518508</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5434285714285714</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06465148221885886</v>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7742979242979242</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02684926515624443</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5628815628815628</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07251142241405353</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_MLPClassifier.xlsx
+++ b/results/BaggingClassifier_MLPClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,175 +493,118 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
-                                                           alpha=1e-05,
-                                                           hidden_layer_sizes=(10,),
-                                                           learning_rate_init=0.01,
-                                                           max_iter=1000,
-                                                           random_state=42,
-                                                           solver='lbfgs'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>77</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.756904761904762</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02377006313463532</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5822619047619046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.05812372528453319</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
-                                                           alpha=1e-05,
-                                                           hidden_layer_sizes=(5,
-                                                                               10,
-                                                                               5),
-                                                           learning_rate_init=1e-05,
-                                                           max_iter=1000,
-                                                           random_state=42,
-                                                           solver='sgd'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7639843279083784</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02699819094802026</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5355033152501507</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0838706479962243</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a6c5ddc10&gt;),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(hidden_layer_sizes=(10,
-                                                                               10,
-                                                                               10),
-                                                           learning_rate_init=0.01,
-                                                           max_iter=1000,
-                                                           random_state=42,
-                                                           solver='lbfgs'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6095238095238095</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6c394c70&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.0001, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7530476190476191</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02695810760902974</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5393015873015873</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07611533623491983</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=0.01,
+                                                           hidden_layer_sizes=(10,),
+                                                           learning_rate_init=1e-05,
+                                                           max_iter=1000,
+                                                           random_state=42),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7124331550802139</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7867223631213563</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04295980823834039</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5607660919146213</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1231265988314171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd83514160&gt;),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
                                                            alpha=1e-05,
+                                                           hidden_layer_sizes=(10,),
+                                                           learning_rate_init=1,
+                                                           max_iter=1000,
+                                                           random_state=42),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd04b2190&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8052583994932186</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0390446449112457</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6127777994880936</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1025227337498701</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd830ec7c0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(alpha=0.01,
                                                            hidden_layer_sizes=(5,
                                                                                10,
                                                                                5),
@@ -669,98 +612,98 @@
                                                            max_iter=1000,
                                                            random_state=42,
                                                            solver='lbfgs'),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7590599876314162</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.03038426453614288</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5257884972170687</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.07054333366411648</v>
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7338095238095237</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd83162fa0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7932747271735369</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04069674312597683</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6331102542733559</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1064756350234152</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
                 ('model',
-                 BaggingClassifier(estimator=MLPClassifier(alpha=1,
-                                                           hidden_layer_sizes=(10,),
-                                                           learning_rate_init=0.01,
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=0.01,
+                                                           hidden_layer_sizes=(10,
+                                                                               10,
+                                                                               10),
+                                                           learning_rate_init=0.0001,
                                                            max_iter=1000,
                                                            random_state=42,
                                                            solver='sgd'),
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="B5" t="n">
+        <v>0.7823529411764707</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7742979242979242</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.02684926515624443</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5628815628815628</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.07251142241405353</v>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8065586079186663</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02724540186378301</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6413462744771569</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1125380167968889</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_MLPClassifier.xlsx
+++ b/results/BaggingClassifier_MLPClassifier.xlsx
@@ -549,7 +549,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd83514160&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f912432ae50&gt;),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(activation='tanh',
                                                            alpha=1e-05,
@@ -565,7 +565,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd04b2190&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91044a5460&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -602,7 +602,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd830ec7c0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f9104649220&gt;),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(alpha=0.01,
                                                            hidden_layer_sizes=(5,
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd83162fa0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9104555eb0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D4" t="n">

--- a/results/BaggingClassifier_MLPClassifier.xlsx
+++ b/results/BaggingClassifier_MLPClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,259 +451,399 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06fae20&gt;),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(activation='tanh',
-                                                           alpha=0.01,
-                                                           hidden_layer_sizes=(10,),
-                                                           learning_rate_init=1e-05,
+                                                           alpha=1,
+                                                           hidden_layer_sizes=(5,
+                                                                               10,
+                                                                               5),
+                                                           learning_rate_init=0.01,
                                                            max_iter=1000,
-                                                           random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                                           random_state=42,
+                                                           solver='sgd'),
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7124331550802139</v>
+        <v>0.7171428571428571</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae027f550&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1, 'model__estimator__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7945699782891019</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.576424691974692</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7547169811320754</v>
       </c>
       <c r="G2" t="n">
+        <v>0.7463224100750597</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5483646825396824</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8845476190476192</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6668000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7867223631213563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04295980823834039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5607660919146213</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1231265988314171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f912432ae50&gt;),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
-                                                           alpha=1e-05,
-                                                           hidden_layer_sizes=(10,),
-                                                           learning_rate_init=1,
-                                                           max_iter=1000,
-                                                           random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91044a5460&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10,), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8052583994932186</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0390446449112457</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6127777994880936</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1025227337498701</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9104649220&gt;),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(alpha=0.01,
-                                                           hidden_layer_sizes=(5,
-                                                                               10,
-                                                                               5),
-                                                           learning_rate_init=1,
-                                                           max_iter=1000,
-                                                           random_state=42,
-                                                           solver='lbfgs'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7338095238095237</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9104555eb0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7932747271735369</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.04069674312597683</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6331102542733559</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1064756350234152</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06bef70&gt;),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(activation='tanh',
                                                            alpha=0.01,
                                                            hidden_layer_sizes=(10,
                                                                                10,
                                                                                10),
-                                                           learning_rate_init=0.0001,
+                                                           learning_rate_init=1,
                                                            max_iter=1000,
                                                            random_state=42,
                                                            solver='sgd'),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6864285714285714</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0734b80&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8001697764036381</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5762189199689199</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7598039039806214</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5288511904761904</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8827749999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6758</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae0718370&gt;),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(hidden_layer_sizes=(10,
+                                                                               10,
+                                                                               10),
+                                                           learning_rate_init=1,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='sgd'),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6305555555555555</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06dbdf0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.0001, 'model__estimator__activation': 'relu'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7460887651791412</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5240793095793097</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7457286231759714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5141468253968253</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7946052631578949</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5788000000000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201520&gt;),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(alpha=0.01,
+                                                           hidden_layer_sizes=(10,
+                                                                               10,
+                                                                               10),
+                                                           learning_rate_init=1e-05,
+                                                           max_iter=1000,
+                                                           random_state=42),
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7823529411764707</v>
+        <v>0.7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae059b850&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.7998439087812725</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5661558275058276</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0.7656592491614417</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5204714285714286</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8751666666666665</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6684</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.8065586079186663</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02724540186378301</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6413462744771569</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1125380167968889</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201b80&gt;),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=1,
+                                                           hidden_layer_sizes=(10,
+                                                                               10,
+                                                                               10),
+                                                           learning_rate_init=1e-05,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='sgd'),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6566666666666666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae04fedf0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 1, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7678381700955693</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5811788933288934</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.741389260680445</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5177468253968254</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8455454545454545</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7120000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_MLPClassifier.xlsx
+++ b/results/BaggingClassifier_MLPClassifier.xlsx
@@ -513,65 +513,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06fae20&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(activation='tanh',
-                                                           alpha=1,
+                                                           alpha=1e-05,
                                                            hidden_layer_sizes=(5,
                                                                                10,
                                                                                5),
-                                                           learning_rate_init=0.01,
+                                                           learning_rate_init=0.0001,
                                                            max_iter=1000,
-                                                           random_state=42,
-                                                           solver='sgd'),
-                                   random_state=42))])</t>
+                                                           random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7171428571428571</v>
+        <v>0.7614285714285713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae027f550&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1, 'model__estimator__activation': 'tanh'}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1e-05, 'model__estimator__activation': 'tanh'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7945699782891019</v>
+        <v>0.7709011072702719</v>
       </c>
       <c r="E2" t="n">
-        <v>0.576424691974692</v>
+        <v>0.5911324841824841</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7547169811320754</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7463224100750597</v>
+        <v>0.748041250593329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5483646825396824</v>
+        <v>0.5659492063492063</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8845476190476192</v>
+        <v>0.8410425531914892</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6668000000000001</v>
+        <v>0.6638333333333332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -581,209 +580,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06bef70&gt;),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
-                                                           alpha=0.01,
-                                                           hidden_layer_sizes=(10,
-                                                                               10,
-                                                                               10),
-                                                           learning_rate_init=1,
-                                                           max_iter=1000,
-                                                           random_state=42,
-                                                           solver='sgd'),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6864285714285714</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0734b80&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8001697764036381</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5762189199689199</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7598039039806214</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5288511904761904</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8827749999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6758</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 1 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae0718370&gt;),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(hidden_layer_sizes=(10,
-                                                                               10,
-                                                                               10),
-                                                           learning_rate_init=1,
-                                                           max_iter=1000,
-                                                           random_state=42,
-                                                           solver='sgd'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6305555555555555</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae06dbdf0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.0001, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7460887651791412</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5240793095793097</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7457286231759714</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5141468253968253</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7946052631578949</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5788000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201520&gt;),
-                ('model',
-                 BaggingClassifier(estimator=MLPClassifier(alpha=0.01,
-                                                           hidden_layer_sizes=(10,
-                                                                               10,
-                                                                               10),
-                                                           learning_rate_init=1e-05,
-                                                           max_iter=1000,
-                                                           random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae059b850&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'adam', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'relu'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7998439087812725</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5661558275058276</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7656592491614417</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5204714285714286</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8751666666666665</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6684</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587201b80&gt;),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
                  BaggingClassifier(estimator=MLPClassifier(activation='tanh',
                                                            alpha=1,
@@ -794,52 +591,249 @@
                                                            max_iter=1000,
                                                            random_state=42,
                                                            solver='sgd'),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7549999999999999</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 5, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 1, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7972255881443195</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5752432400932401</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7661382157287554</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5811996031746031</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8681702127659574</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=0.01,
+                                                           hidden_layer_sizes=(5,
+                                                                               10,
+                                                                               5),
+                                                           learning_rate_init=0.01,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='lbfgs'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7126484626484626</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'lbfgs', 'model__estimator__learning_rate_init': 0.01, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7643922638194143</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5536312298812299</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.731089589698922</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5185892857142858</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6494</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(activation='tanh',
+                                                           alpha=0.01,
+                                                           hidden_layer_sizes=(10,
+                                                                               10,
+                                                                               10),
+                                                           learning_rate_init=0.0001,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='sgd'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7549999999999999</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 0.0001, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 0.01, 'model__estimator__activation': 'tanh'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79613407122071</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6038723110223111</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7679486280784229</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5739087301587301</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8676326530612246</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=MLPClassifier(alpha=1,
+                                                           hidden_layer_sizes=(5,
+                                                                               10,
+                                                                               5),
+                                                           learning_rate_init=1,
+                                                           max_iter=1000,
+                                                           random_state=42,
+                                                           solver='sgd'),
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6566666666666666</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae04fedf0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1e-05, 'model__estimator__hidden_layer_sizes': (10, 10, 10), 'model__estimator__alpha': 1, 'model__estimator__activation': 'tanh'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'sgd', 'model__estimator__learning_rate_init': 1, 'model__estimator__hidden_layer_sizes': (5, 10, 5), 'model__estimator__alpha': 1, 'model__estimator__activation': 'relu'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7678381700955693</v>
+        <v>0.7606430328984767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5811788933288934</v>
+        <v>0.6004104839604838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6511627906976744</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.741389260680445</v>
+        <v>0.7352451440422706</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5177468253968254</v>
+        <v>0.5688944444444444</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8455454545454545</v>
+        <v>0.8330384615384614</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7120000000000001</v>
+        <v>0.6871666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 1 1 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
